--- a/tables/coconeComparison.xlsx
+++ b/tables/coconeComparison.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="flange" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="surf_comp" localSheetId="2">flange!$B$3:$F$12</definedName>
     <definedName name="surf_comp" localSheetId="0">Sheet1!$B$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,11 +32,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="surf_comp1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="E:\Data\SyntheticDataSets\garb\Flange\surf_comp.txt" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>AngDist_1to2</t>
   </si>
@@ -53,6 +63,108 @@
   </si>
   <si>
     <t>dataset-id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>flange</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f176.nrrd</t>
+  </si>
+  <si>
+    <t>f177.nrrd</t>
+  </si>
+  <si>
+    <t>f178.nrrd</t>
+  </si>
+  <si>
+    <t>f179.nrrd</t>
+  </si>
+  <si>
+    <t>f180.nrrd</t>
+  </si>
+  <si>
+    <t>f181.nrrd</t>
+  </si>
+  <si>
+    <t>f182.nrrd</t>
+  </si>
+  <si>
+    <t>f183.nrrd</t>
+  </si>
+  <si>
+    <t>f184.nrrd</t>
+  </si>
+  <si>
+    <t>f185.nrrd</t>
+  </si>
+  <si>
+    <t>SHREC + RELIGRAD</t>
+  </si>
+  <si>
+    <t>SHREC + SYNGRAD</t>
+  </si>
+  <si>
+    <t>SHREC+RELIGRAD</t>
+  </si>
+  <si>
+    <t>SHREC+SYNGRAD</t>
+  </si>
+  <si>
+    <t>Twocube cocone compare</t>
+  </si>
+  <si>
+    <t>Cocone</t>
   </si>
 </sst>
 </file>
@@ -88,8 +200,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,11 +499,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="100711424"/>
-        <c:axId val="60027648"/>
+        <c:axId val="109902464"/>
+        <c:axId val="111309568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100711424"/>
+        <c:axId val="109902464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60027648"/>
+        <c:crossAx val="111309568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -440,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60027648"/>
+        <c:axId val="111309568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,11 +600,1108 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100711424"/>
+        <c:crossAx val="109902464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>77.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.784300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.999799999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.245199999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.396100000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.220500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.757300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.205500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.963700000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.803299999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.799599999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.400199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC+RELIGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.10568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.103753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.103753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20761399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.152361</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3787199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.217416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19962299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20194899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23141700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.215335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC+SYNGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.87681900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87681900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87681900000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87681900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.352600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.175486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4416399999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.45052</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0093500000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.7761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.6739</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="113097344"/>
+        <c:axId val="113099136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113097344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113099136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113099136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113097344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC+RELIGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC+SYNGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="111429120"/>
+        <c:axId val="111430656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111429120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111430656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111430656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111429120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80.009100000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.993300000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.637200000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.857600000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.874899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.701800000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.275099999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.226299999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.2363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC + SYNGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3379200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7700999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3497000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0722699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.17319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6621700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3602100000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0552700000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8633600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6751499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC + RELIGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35.0276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.838200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.867199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.667900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.410599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.938400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.814900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.894799999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.3201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="111350912"/>
+        <c:axId val="111352448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111350912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111352448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111352448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111350912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58138998250218732"/>
+          <c:y val="0.10146799358413532"/>
+          <c:w val="0.11983303488933042"/>
+          <c:h val="0.10934490331565697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cocone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC + SYNGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>flange!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHREC + RELIGRAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>flange!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="111388160"/>
+        <c:axId val="111389696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111388160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111389696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111389696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111388160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -539,8 +1751,142 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="surf_comp" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="surf_comp" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,11 +2174,573 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1541,24 +3449,722 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>77.784300000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.10568</v>
+      </c>
+      <c r="D3">
+        <v>0.87681900000000002</v>
+      </c>
+      <c r="E3">
+        <v>341</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(E3:E17)</f>
+        <v>329.53333333333336</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(D3:D17)</f>
+        <v>8.0733899999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>77.784300000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.103753</v>
+      </c>
+      <c r="D4">
+        <v>0.87681900000000002</v>
+      </c>
+      <c r="E4">
+        <v>341</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(B3:B17)</f>
+        <v>79.06582666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>77.784300000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.103753</v>
+      </c>
+      <c r="D5">
+        <v>0.87681900000000002</v>
+      </c>
+      <c r="E5">
+        <v>333</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>77.784300000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.103753</v>
+      </c>
+      <c r="D6">
+        <v>0.87681900000000002</v>
+      </c>
+      <c r="E6">
+        <v>333</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>76.999799999999993</v>
+      </c>
+      <c r="C7">
+        <v>0.20761399999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.104308</v>
+      </c>
+      <c r="E7">
+        <v>305</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>87.245199999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.152361</v>
+      </c>
+      <c r="D8">
+        <v>43.352600000000002</v>
+      </c>
+      <c r="E8">
+        <v>292</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>76.058999999999997</v>
+      </c>
+      <c r="C9">
+        <v>1.3787199999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.36727</v>
+      </c>
+      <c r="E9">
+        <v>351</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>76.396100000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.19907</v>
+      </c>
+      <c r="D10">
+        <v>0.175486</v>
+      </c>
+      <c r="E10">
+        <v>375</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>80.220500000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.217416</v>
+      </c>
+      <c r="D11">
+        <v>4.4416399999999996</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>76.757300000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.2621</v>
+      </c>
+      <c r="D12">
+        <v>1.25806</v>
+      </c>
+      <c r="E12">
+        <v>289</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>78.205500000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.19962299999999999</v>
+      </c>
+      <c r="D13">
+        <v>5.45052</v>
+      </c>
+      <c r="E13">
+        <v>299</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>77.963700000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.16617999999999999</v>
+      </c>
+      <c r="D14">
+        <v>4.0093500000000004</v>
+      </c>
+      <c r="E14">
+        <v>306</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>83.803299999999993</v>
+      </c>
+      <c r="C15">
+        <v>0.20194899999999999</v>
+      </c>
+      <c r="D15">
+        <v>40.7761</v>
+      </c>
+      <c r="E15">
+        <v>317</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>83.799599999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.23141700000000001</v>
+      </c>
+      <c r="D16">
+        <v>12.6739</v>
+      </c>
+      <c r="E16">
+        <v>372</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>77.400199999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.215335</v>
+      </c>
+      <c r="D17">
+        <v>3.98434</v>
+      </c>
+      <c r="E17">
+        <v>389</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>22.8413</v>
+      </c>
+      <c r="C3">
+        <v>80.009100000000004</v>
+      </c>
+      <c r="D3">
+        <v>4.3379200000000004</v>
+      </c>
+      <c r="E3">
+        <v>35.0276</v>
+      </c>
+      <c r="F3">
+        <v>840</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>12.910500000000001</v>
+      </c>
+      <c r="C4">
+        <v>86.993300000000005</v>
+      </c>
+      <c r="D4">
+        <v>2.7700999999999998</v>
+      </c>
+      <c r="E4">
+        <v>47.838200000000001</v>
+      </c>
+      <c r="F4">
+        <v>743</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>11.3813</v>
+      </c>
+      <c r="C5">
+        <v>70.637200000000007</v>
+      </c>
+      <c r="D5">
+        <v>4.3497000000000003</v>
+      </c>
+      <c r="E5">
+        <v>35.0334</v>
+      </c>
+      <c r="F5">
+        <v>703</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>15.1335</v>
+      </c>
+      <c r="C6">
+        <v>78.353999999999999</v>
+      </c>
+      <c r="D6">
+        <v>4.0722699999999996</v>
+      </c>
+      <c r="E6">
+        <v>41.867199999999997</v>
+      </c>
+      <c r="F6">
+        <v>714</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>15.394399999999999</v>
+      </c>
+      <c r="C7">
+        <v>78.857600000000005</v>
+      </c>
+      <c r="D7">
+        <v>2.17319</v>
+      </c>
+      <c r="E7">
+        <v>42.667900000000003</v>
+      </c>
+      <c r="F7">
+        <v>782</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>15.139900000000001</v>
+      </c>
+      <c r="C8">
+        <v>85.874899999999997</v>
+      </c>
+      <c r="D8">
+        <v>3.6621700000000001</v>
+      </c>
+      <c r="E8">
+        <v>24.410599999999999</v>
+      </c>
+      <c r="F8">
+        <v>863</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>12.9253</v>
+      </c>
+      <c r="C9">
+        <v>77.701800000000006</v>
+      </c>
+      <c r="D9">
+        <v>4.3602100000000004</v>
+      </c>
+      <c r="E9">
+        <v>34.938400000000001</v>
+      </c>
+      <c r="F9">
+        <v>675</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>12.5375</v>
+      </c>
+      <c r="C10">
+        <v>86.275099999999995</v>
+      </c>
+      <c r="D10">
+        <v>3.0552700000000002</v>
+      </c>
+      <c r="E10">
+        <v>47.814900000000002</v>
+      </c>
+      <c r="F10">
+        <v>735</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>22.8322</v>
+      </c>
+      <c r="C11">
+        <v>87.226299999999995</v>
+      </c>
+      <c r="D11">
+        <v>6.8633600000000001</v>
+      </c>
+      <c r="E11">
+        <v>34.894799999999996</v>
+      </c>
+      <c r="F11">
+        <v>753</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>20.830200000000001</v>
+      </c>
+      <c r="C12">
+        <v>75.2363</v>
+      </c>
+      <c r="D12">
+        <v>3.6751499999999999</v>
+      </c>
+      <c r="E12">
+        <v>24.3201</v>
+      </c>
+      <c r="F12">
+        <v>731</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>